--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wickr/Library/CloudStorage/Dropbox/Uni_research/Projects/2024-08_SNP_calling_from_assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wickr/Library/CloudStorage/Dropbox/Uni_research/Projects/2024-08_SNP_calling_from_assemblies/github_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291B0A8-7185-3445-B56C-17CB3C15D1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DEE5A7-D329-8E4D-ACFF-72174E9D175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-28300" windowWidth="36600" windowHeight="21380" activeTab="2" xr2:uid="{D707DDE6-A3E9-8B48-835B-969D3C58A0BE}"/>
+    <workbookView xWindow="4840" yWindow="-26320" windowWidth="36600" windowHeight="21380" xr2:uid="{D707DDE6-A3E9-8B48-835B-969D3C58A0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table S2 - raw results" sheetId="2" r:id="rId3"/>
     <sheet name="Table S3 - Medaka polishing" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
     <author>tc={6383E7DF-868A-C04B-A06A-AD6CBC1451C5}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7BF98D55-DDC6-F242-B847-374D45F03F7A}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{7BF98D55-DDC6-F242-B847-374D45F03F7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     The ONT reads with no QC at all (as created by Dorado).</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{0648C290-7EA4-ED4C-B950-8C04D6516F66}">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{0648C290-7EA4-ED4C-B950-8C04D6516F66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     The ONT reads after I tossed out any with a basecaller-reported qscore of &lt;12.5.</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{64E4D32A-0CE2-4544-8159-EAFDC5A89B69}">
+    <comment ref="R1" authorId="2" shapeId="0" xr:uid="{64E4D32A-0CE2-4544-8159-EAFDC5A89B69}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     The ONT reads after I tossed out any with a read length of &lt;1000 bp.</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="3" shapeId="0" xr:uid="{EFA65B20-DD1D-2B4E-85D9-97F1D07000B9}">
+    <comment ref="U1" authorId="3" shapeId="0" xr:uid="{EFA65B20-DD1D-2B4E-85D9-97F1D07000B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
     The Illumina reads with no QC at all.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="4" shapeId="0" xr:uid="{6383E7DF-868A-C04B-A06A-AD6CBC1451C5}">
+    <comment ref="Y1" authorId="4" shapeId="0" xr:uid="{6383E7DF-868A-C04B-A06A-AD6CBC1451C5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="152">
   <si>
     <t>DMG2404030</t>
   </si>
@@ -607,6 +607,102 @@
   <si>
     <t>Error counts for each of the long-read assemblies, before and after Medaka polishing.</t>
   </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Plasmid 1</t>
+  </si>
+  <si>
+    <t>Plasmid 2</t>
+  </si>
+  <si>
+    <t>CP178886</t>
+  </si>
+  <si>
+    <t>CP178887</t>
+  </si>
+  <si>
+    <t>CP178888</t>
+  </si>
+  <si>
+    <t>CP178883</t>
+  </si>
+  <si>
+    <t>CP178884</t>
+  </si>
+  <si>
+    <t>CP178885</t>
+  </si>
+  <si>
+    <t>CP178880</t>
+  </si>
+  <si>
+    <t>CP178881</t>
+  </si>
+  <si>
+    <t>CP178882</t>
+  </si>
+  <si>
+    <t>CP178877</t>
+  </si>
+  <si>
+    <t>CP178878</t>
+  </si>
+  <si>
+    <t>CP178879</t>
+  </si>
+  <si>
+    <t>CP178874</t>
+  </si>
+  <si>
+    <t>CP178875</t>
+  </si>
+  <si>
+    <t>CP178876</t>
+  </si>
+  <si>
+    <t>CP178871</t>
+  </si>
+  <si>
+    <t>CP178872</t>
+  </si>
+  <si>
+    <t>CP178873</t>
+  </si>
+  <si>
+    <t>CP178868</t>
+  </si>
+  <si>
+    <t>CP178869</t>
+  </si>
+  <si>
+    <t>CP178870</t>
+  </si>
+  <si>
+    <t>Nucleotide accessions (reference assembly)</t>
+  </si>
+  <si>
+    <t>GCF_047361035.1</t>
+  </si>
+  <si>
+    <t>GCF_047361015.1</t>
+  </si>
+  <si>
+    <t>GCF_047361025.1</t>
+  </si>
+  <si>
+    <t>GCF_047359885.1</t>
+  </si>
+  <si>
+    <t>GCF_047359875.1</t>
+  </si>
+  <si>
+    <t>GCF_047359865.1</t>
+  </si>
+  <si>
+    <t>GCF_047358895.1</t>
+  </si>
 </sst>
 </file>
 
@@ -682,12 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +786,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,19 +1155,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I1" dT="2024-08-29T21:46:03.36" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{7BF98D55-DDC6-F242-B847-374D45F03F7A}">
+  <threadedComment ref="L1" dT="2024-08-29T21:46:03.36" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{7BF98D55-DDC6-F242-B847-374D45F03F7A}">
     <text>The ONT reads with no QC at all (as created by Dorado).</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2024-08-29T21:46:37.10" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{0648C290-7EA4-ED4C-B950-8C04D6516F66}">
+  <threadedComment ref="O1" dT="2024-08-29T21:46:37.10" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{0648C290-7EA4-ED4C-B950-8C04D6516F66}">
     <text>The ONT reads after I tossed out any with a basecaller-reported qscore of &lt;12.5.</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-08-29T21:46:55.03" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{64E4D32A-0CE2-4544-8159-EAFDC5A89B69}">
+  <threadedComment ref="R1" dT="2024-08-29T21:46:55.03" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{64E4D32A-0CE2-4544-8159-EAFDC5A89B69}">
     <text>The ONT reads after I tossed out any with a read length of &lt;1000 bp.</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2024-08-29T21:51:35.18" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{EFA65B20-DD1D-2B4E-85D9-97F1D07000B9}">
+  <threadedComment ref="U1" dT="2024-08-29T21:51:35.18" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{EFA65B20-DD1D-2B4E-85D9-97F1D07000B9}">
     <text>The Illumina reads with no QC at all.</text>
   </threadedComment>
-  <threadedComment ref="V1" dT="2024-08-29T22:04:54.49" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{6383E7DF-868A-C04B-A06A-AD6CBC1451C5}">
+  <threadedComment ref="Y1" dT="2024-08-29T22:04:54.49" personId="{58BD3C5D-71E2-F14A-A81E-4819E63180AB}" id="{6383E7DF-868A-C04B-A06A-AD6CBC1451C5}">
     <text>The Illumina reads after being QCed by fastp.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1136,35 +1232,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9003A3-71EA-1144-A503-057B77CE77C8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="2" width="61.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="61.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1175,81 +1271,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F0327-BC77-D24A-AD2D-FC64E2E806BF}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="7" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" customWidth="1"/>
-    <col min="24" max="24" width="13.5" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" customWidth="1"/>
-    <col min="27" max="28" width="8.33203125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="7.5" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="27" width="13.5" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
+    <col min="30" max="31" width="8.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G1" s="10" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1269,19 +1371,19 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -1302,49 +1404,61 @@
         <v>15</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -1355,87 +1469,99 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>691256</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>2244138729</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <v>18762</v>
       </c>
-      <c r="L3" s="4">
+      <c r="O3" s="4">
         <v>633817</v>
       </c>
-      <c r="M3" s="4">
+      <c r="P3" s="4">
         <v>2045475652</v>
       </c>
-      <c r="N3" s="4">
+      <c r="Q3" s="4">
         <v>18804</v>
       </c>
-      <c r="O3" s="4">
+      <c r="R3" s="4">
         <v>206111</v>
       </c>
-      <c r="P3" s="4">
+      <c r="S3" s="4">
         <v>1881436150</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <v>20927</v>
       </c>
-      <c r="R3" s="4">
+      <c r="U3" s="4">
         <v>1692944</v>
       </c>
-      <c r="S3" s="4">
+      <c r="V3" s="4">
         <v>203402787</v>
       </c>
-      <c r="T3" s="4">
+      <c r="W3" s="4">
         <v>203540274</v>
       </c>
-      <c r="U3" s="4">
-        <f>S3+T3</f>
+      <c r="X3" s="4">
+        <f>V3+W3</f>
         <v>406943061</v>
       </c>
-      <c r="V3" s="4">
+      <c r="Y3" s="4">
         <v>1672331</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Z3" s="4">
         <v>201141960</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AA3" s="4">
         <v>200919046</v>
       </c>
-      <c r="Y3" s="4">
-        <f>W3+X3</f>
+      <c r="AB3" s="4">
+        <f>Z3+AA3</f>
         <v>402061006</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AC3" s="4">
         <v>2886598</v>
       </c>
-      <c r="AA3" s="5">
-        <f>$P3/Z3</f>
+      <c r="AD3" s="5">
+        <f>$S3/AC3</f>
         <v>651.78322371178808</v>
       </c>
-      <c r="AB3" s="5">
-        <f>$Y3/Z3</f>
+      <c r="AE3" s="5">
+        <f t="shared" ref="AE3:AE9" si="0">$AB3/AC3</f>
         <v>139.28541695102678</v>
       </c>
-      <c r="AC3" s="5">
-        <f>AA3+AB3</f>
+      <c r="AF3" s="5">
+        <f>AD3+AE3</f>
         <v>791.06864066281491</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
@@ -1446,87 +1572,99 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
         <v>99</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L4" s="4">
         <v>604712</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="4">
         <v>1274042302</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="4">
         <v>11762</v>
       </c>
-      <c r="L4" s="4">
+      <c r="O4" s="4">
         <v>549747</v>
       </c>
-      <c r="M4" s="4">
+      <c r="P4" s="4">
         <v>1149017470</v>
       </c>
-      <c r="N4" s="4">
+      <c r="Q4" s="4">
         <v>11683</v>
       </c>
-      <c r="O4" s="4">
+      <c r="R4" s="4">
         <v>170651</v>
       </c>
-      <c r="P4" s="4">
+      <c r="S4" s="4">
         <v>975514879</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="T4" s="4">
         <v>16573</v>
       </c>
-      <c r="R4" s="4">
+      <c r="U4" s="4">
         <v>3099989</v>
       </c>
-      <c r="S4" s="4">
+      <c r="V4" s="4">
         <v>353714762</v>
       </c>
-      <c r="T4" s="4">
+      <c r="W4" s="4">
         <v>353856101</v>
       </c>
-      <c r="U4" s="4">
-        <f>S4+T4</f>
+      <c r="X4" s="4">
+        <f>V4+W4</f>
         <v>707570863</v>
       </c>
-      <c r="V4" s="4">
+      <c r="Y4" s="4">
         <v>3065564</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Z4" s="4">
         <v>350110559</v>
       </c>
-      <c r="X4" s="4">
+      <c r="AA4" s="4">
         <v>349612189</v>
       </c>
-      <c r="Y4" s="4">
-        <f>W4+X4</f>
+      <c r="AB4" s="4">
+        <f>Z4+AA4</f>
         <v>699722748</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AC4" s="4">
         <v>2886598</v>
       </c>
-      <c r="AA4" s="5">
-        <f>$P4/Z4</f>
+      <c r="AD4" s="5">
+        <f>$S4/AC4</f>
         <v>337.946218697581</v>
       </c>
-      <c r="AB4" s="5">
-        <f>$Y4/Z4</f>
+      <c r="AE4" s="5">
+        <f t="shared" si="0"/>
         <v>242.403946791344</v>
       </c>
-      <c r="AC4" s="5">
-        <f t="shared" ref="AC4:AC9" si="0">AA4+AB4</f>
+      <c r="AF4" s="5">
+        <f t="shared" ref="AF4:AF9" si="1">AD4+AE4</f>
         <v>580.35016548892497</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -1537,87 +1675,99 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L5" s="4">
         <v>911928</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <v>2334428800</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="4">
         <v>14585</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="4">
         <v>829425</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="4">
         <v>2109313347</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="4">
         <v>14525</v>
       </c>
-      <c r="O5" s="4">
+      <c r="R5" s="4">
         <v>304441</v>
       </c>
-      <c r="P5" s="4">
+      <c r="S5" s="4">
         <v>1863791162</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="T5" s="4">
         <v>18223</v>
       </c>
-      <c r="R5" s="4">
+      <c r="U5" s="4">
         <v>19734807</v>
       </c>
-      <c r="S5" s="4">
+      <c r="V5" s="4">
         <v>2126823150</v>
       </c>
-      <c r="T5" s="4">
+      <c r="W5" s="4">
         <v>2127727160</v>
       </c>
-      <c r="U5" s="4">
-        <f>S5+T5</f>
+      <c r="X5" s="4">
+        <f>V5+W5</f>
         <v>4254550310</v>
       </c>
-      <c r="V5" s="4">
+      <c r="Y5" s="4">
         <v>19515003</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Z5" s="4">
         <v>2105312600</v>
       </c>
-      <c r="X5" s="4">
+      <c r="AA5" s="4">
         <v>2101593516</v>
       </c>
-      <c r="Y5" s="4">
-        <f>W5+X5</f>
+      <c r="AB5" s="4">
+        <f>Z5+AA5</f>
         <v>4206906116</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AC5" s="4">
         <v>2886599</v>
       </c>
-      <c r="AA5" s="5">
-        <f>$P5/Z5</f>
+      <c r="AD5" s="5">
+        <f>$S5/AC5</f>
         <v>645.67027217843554</v>
       </c>
-      <c r="AB5" s="5">
-        <f>$Y5/Z5</f>
+      <c r="AE5" s="5">
+        <f t="shared" si="0"/>
         <v>1457.3919397879649</v>
       </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="0"/>
+      <c r="AF5" s="5">
+        <f t="shared" si="1"/>
         <v>2103.0622119664004</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -1628,87 +1778,99 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
         <v>101</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="4">
+      <c r="L6" s="4">
         <v>577325</v>
       </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
         <v>2134994545</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <v>17642</v>
       </c>
-      <c r="L6" s="4">
+      <c r="O6" s="4">
         <v>524541</v>
       </c>
-      <c r="M6" s="4">
+      <c r="P6" s="4">
         <v>1930201763</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="4">
         <v>17638</v>
       </c>
-      <c r="O6" s="4">
+      <c r="R6" s="4">
         <v>212199</v>
       </c>
-      <c r="P6" s="4">
+      <c r="S6" s="4">
         <v>1814081856</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="T6" s="4">
         <v>19308</v>
       </c>
-      <c r="R6" s="4">
+      <c r="U6" s="4">
         <v>1602094</v>
       </c>
-      <c r="S6" s="4">
+      <c r="V6" s="4">
         <v>178255356</v>
       </c>
-      <c r="T6" s="4">
+      <c r="W6" s="4">
         <v>178434167</v>
       </c>
-      <c r="U6" s="4">
-        <f t="shared" ref="U6:U9" si="1">S6+T6</f>
+      <c r="X6" s="4">
+        <f t="shared" ref="X6:X9" si="2">V6+W6</f>
         <v>356689523</v>
       </c>
-      <c r="V6" s="4">
+      <c r="Y6" s="4">
         <v>1584049</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Z6" s="4">
         <v>176515589</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AA6" s="4">
         <v>176304285</v>
       </c>
-      <c r="Y6" s="4">
-        <f t="shared" ref="Y6:Y9" si="2">W6+X6</f>
+      <c r="AB6" s="4">
+        <f t="shared" ref="AB6:AB9" si="3">Z6+AA6</f>
         <v>352819874</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AC6" s="4">
         <v>2886598</v>
       </c>
-      <c r="AA6" s="5">
-        <f t="shared" ref="AA6:AA9" si="3">$P6/Z6</f>
+      <c r="AD6" s="5">
+        <f t="shared" ref="AD6:AD9" si="4">$S6/AC6</f>
         <v>628.44977236179056</v>
       </c>
-      <c r="AB6" s="5">
-        <f>$Y6/Z6</f>
+      <c r="AE6" s="5">
+        <f t="shared" si="0"/>
         <v>122.2268823022811</v>
       </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="0"/>
+      <c r="AF6" s="5">
+        <f t="shared" si="1"/>
         <v>750.67665466407163</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1719,87 +1881,99 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="4">
+      <c r="L7" s="4">
         <v>180195</v>
       </c>
-      <c r="J7" s="4">
+      <c r="M7" s="4">
         <v>1182696996</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <v>23609</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <v>162577</v>
       </c>
-      <c r="M7" s="4">
+      <c r="P7" s="4">
         <v>1083046581</v>
       </c>
-      <c r="N7" s="4">
+      <c r="Q7" s="4">
         <v>23936</v>
       </c>
-      <c r="O7" s="4">
+      <c r="R7" s="4">
         <v>105653</v>
       </c>
-      <c r="P7" s="4">
+      <c r="S7" s="4">
         <v>1057335967</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="T7" s="4">
         <v>24664</v>
       </c>
-      <c r="R7" s="4">
+      <c r="U7" s="4">
         <v>2095104</v>
       </c>
-      <c r="S7" s="4">
+      <c r="V7" s="4">
         <v>231120668</v>
       </c>
-      <c r="T7" s="4">
+      <c r="W7" s="4">
         <v>231178661</v>
       </c>
-      <c r="U7" s="4">
+      <c r="X7" s="4">
+        <f t="shared" si="2"/>
+        <v>462299329</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>2073834</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>229015622</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>228628877</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="3"/>
+        <v>457644499</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>2886597</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="4"/>
+        <v>366.29150761259712</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="0"/>
+        <v>158.54118153659829</v>
+      </c>
+      <c r="AF7" s="5">
         <f t="shared" si="1"/>
-        <v>462299329</v>
-      </c>
-      <c r="V7" s="4">
-        <v>2073834</v>
-      </c>
-      <c r="W7" s="4">
-        <v>229015622</v>
-      </c>
-      <c r="X7" s="4">
-        <v>228628877</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="2"/>
-        <v>457644499</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>2886597</v>
-      </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="3"/>
-        <v>366.29150761259712</v>
-      </c>
-      <c r="AB7" s="5">
-        <f>$Y7/Z7</f>
-        <v>158.54118153659829</v>
-      </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="0"/>
         <v>524.8326891491954</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -1810,87 +1984,99 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="4">
+      <c r="L8" s="4">
         <v>439561</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="4">
         <v>2412409595</v>
       </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
         <v>19512</v>
       </c>
-      <c r="L8" s="4">
+      <c r="O8" s="4">
         <v>399690</v>
       </c>
-      <c r="M8" s="4">
+      <c r="P8" s="4">
         <v>2176012084</v>
       </c>
-      <c r="N8" s="4">
+      <c r="Q8" s="4">
         <v>19526</v>
       </c>
-      <c r="O8" s="4">
+      <c r="R8" s="4">
         <v>198975</v>
       </c>
-      <c r="P8" s="4">
+      <c r="S8" s="4">
         <v>2093837921</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="T8" s="4">
         <v>20387</v>
       </c>
-      <c r="R8" s="4">
+      <c r="U8" s="4">
         <v>1280178</v>
       </c>
-      <c r="S8" s="4">
+      <c r="V8" s="4">
         <v>153965573</v>
       </c>
-      <c r="T8" s="4">
+      <c r="W8" s="4">
         <v>154128532</v>
       </c>
-      <c r="U8" s="4">
+      <c r="X8" s="4">
+        <f t="shared" si="2"/>
+        <v>308094105</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>1263224</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>152031239</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>151869462</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="3"/>
+        <v>303900701</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>2886598</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="4"/>
+        <v>725.36526423145858</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="0"/>
+        <v>105.27988344757392</v>
+      </c>
+      <c r="AF8" s="5">
         <f t="shared" si="1"/>
-        <v>308094105</v>
-      </c>
-      <c r="V8" s="4">
-        <v>1263224</v>
-      </c>
-      <c r="W8" s="4">
-        <v>152031239</v>
-      </c>
-      <c r="X8" s="4">
-        <v>151869462</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="2"/>
-        <v>303900701</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>2886598</v>
-      </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="3"/>
-        <v>725.36526423145858</v>
-      </c>
-      <c r="AB8" s="5">
-        <f>$Y8/Z8</f>
-        <v>105.27988344757392</v>
-      </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="0"/>
         <v>830.64514767903256</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -1901,88 +2087,98 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="4">
+      <c r="L9" s="4">
         <v>237650</v>
       </c>
-      <c r="J9" s="4">
+      <c r="M9" s="4">
         <v>838932453</v>
       </c>
-      <c r="K9" s="4">
+      <c r="N9" s="4">
         <v>17918</v>
       </c>
-      <c r="L9" s="4">
+      <c r="O9" s="4">
         <v>213984</v>
       </c>
-      <c r="M9" s="4">
+      <c r="P9" s="4">
         <v>754502937</v>
       </c>
-      <c r="N9" s="4">
+      <c r="Q9" s="4">
         <v>18001</v>
       </c>
-      <c r="O9" s="4">
+      <c r="R9" s="4">
         <v>76391</v>
       </c>
-      <c r="P9" s="4">
+      <c r="S9" s="4">
         <v>697918832</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="T9" s="4">
         <v>20037</v>
       </c>
-      <c r="R9" s="4">
+      <c r="U9" s="4">
         <v>1507104</v>
       </c>
-      <c r="S9" s="4">
+      <c r="V9" s="4">
         <v>180009632</v>
       </c>
-      <c r="T9" s="4">
+      <c r="W9" s="4">
         <v>180143637</v>
       </c>
-      <c r="U9" s="4">
+      <c r="X9" s="4">
+        <f t="shared" si="2"/>
+        <v>360153269</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1490803</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>178236884</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>178061865</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="3"/>
+        <v>356298749</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>2886598</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="4"/>
+        <v>241.77901876187818</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="0"/>
+        <v>123.43206397288435</v>
+      </c>
+      <c r="AF9" s="5">
         <f t="shared" si="1"/>
-        <v>360153269</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1490803</v>
-      </c>
-      <c r="W9" s="4">
-        <v>178236884</v>
-      </c>
-      <c r="X9" s="4">
-        <v>178061865</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="2"/>
-        <v>356298749</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>2886598</v>
-      </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="3"/>
-        <v>241.77901876187818</v>
-      </c>
-      <c r="AB9" s="5">
-        <f>$Y9/Z9</f>
-        <v>123.43206397288435</v>
-      </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="0"/>
         <v>365.2110827347625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="7">
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1993,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C08857F-7A86-7248-9438-8A23727837F8}">
   <dimension ref="A1:M757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G60" sqref="E44:G60"/>
     </sheetView>
